--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,7 +1256,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>488151</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>442298</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,7 +2103,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>59787</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>61329</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2934,7 +2950,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>13642</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>13625</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,6 +1267,22 @@
         <v>442298</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>449373</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1278,7 +1294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,6 +2130,22 @@
         <v>61329</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>58622</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2125,7 +2157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,6 +2993,22 @@
         <v>13625</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>13273</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="한화솔루션" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="아난티" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="대아티아이" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="동원산업" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,7 +1281,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>439225</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>445963</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>466990</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>478631</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>489509</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>470563</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2143,7 +2184,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>57483</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>57287</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>57076</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>56788</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>57444</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>57084</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +2238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3006,7 +3087,878 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>13097</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>13412</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>13245</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>13559</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>13611</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>13272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29731</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B23" t="n">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27716</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27918</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15081</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15709</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17713</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13916</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>16769</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17059</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16339</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B68" t="n">
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13234</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12793</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B93" t="n">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15039</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B101" t="n">
+        <v>14718</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -11,6 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="아난티" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="대아티아이" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="동원산업" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CJ씨푸드" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="사조씨푸드" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1326,14 @@
         <v>470563</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>460744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1335,7 +1345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,6 +2237,14 @@
         <v>57084</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>57371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2238,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3130,12 +3148,859 @@
         <v>13272</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>13214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29731</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B23" t="n">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27716</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27918</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15081</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15709</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17713</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13916</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>16769</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17059</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16339</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B68" t="n">
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13234</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12793</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B93" t="n">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15039</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B101" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3163,802 +4028,1633 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>31227</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>30323</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>29731</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>30004</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>30827</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>30193</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>31251</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>33704</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>35018</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>31947</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>30359</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>30922</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>30505</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>33411</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>31345</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>30384</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>30756</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>30616</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>29876</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>29856</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>29916</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>29227</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>29699</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>28705</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>27716</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>27462</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>26552</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>26983</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>27918</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>16336</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>10094</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>11238</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>15081</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>15116</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>15186</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>15961</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>15796</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>15709</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>16935</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>19440</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>18877</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>18125</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>18024</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>18129</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>17713</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>18291</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>18612</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>18495</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>20319</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>20470</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>20015</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>13916</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>14093</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>15089</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>14940</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>14697</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>15142</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>16580</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>16620</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>16769</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>17059</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>17030</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>16322</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>16339</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>16358</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>17528</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>13563</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>12940</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>12791</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>12124</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>12059</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>12138</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>12098</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>11712</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>13236</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>11492</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>11086</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>11462</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>11668</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>11541</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>11665</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>11417</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>12132</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>12464</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>13234</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>14048</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>13430</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>13163</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>12793</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>13051</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>12922</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>12779</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>12572</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>13307</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>12926</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>13457</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>15039</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>15275</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>16857</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>45975</v>
       </c>
+      <c r="B100" t="n">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45978</v>
+      </c>
       <c r="B101" t="n">
-        <v>14718</v>
+        <v>1743</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,6 +1334,14 @@
         <v>460744</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>438074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1345,7 +1353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2245,6 +2253,14 @@
         <v>57371</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>56944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2256,7 +2272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3156,12 +3172,867 @@
         <v>13214</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>12884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29731</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B23" t="n">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27716</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27918</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15081</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15709</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17713</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13916</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>16769</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17059</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16339</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B68" t="n">
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13234</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12793</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B93" t="n">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15039</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B101" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14624</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B103" t="n">
+        <v>23022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3189,810 +4060,810 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>31227</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>30323</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>29731</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>30004</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>30827</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>30193</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>31251</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>33704</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>35018</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>31947</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>30359</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>30922</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>30505</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>33411</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>31345</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>30384</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>30756</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>30616</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>29876</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>29856</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>29916</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>29227</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>29699</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>28705</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>27716</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>27462</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>26552</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>26983</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>27918</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>16336</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>10094</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>11238</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>15081</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>15116</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>15186</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>15961</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>15796</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>15709</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>16935</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>19440</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>18877</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>18125</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>18024</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>18129</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>17713</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>18291</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>18612</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>18495</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>20319</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>20470</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>20015</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>13916</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>14093</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>15089</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>14940</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>14697</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>15142</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>16580</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>16620</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>16769</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>17059</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>17030</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>16322</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>16339</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>16358</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>17528</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>13563</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>12940</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>12791</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>12124</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>12059</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>12138</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>12098</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>11712</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>13236</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>11492</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>11086</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>11462</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>11668</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>11541</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>11665</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>11417</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>12132</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>12464</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>13234</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>14048</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>13430</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>13163</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>12793</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>13051</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>12922</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>12779</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>12572</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>13307</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>12926</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>13457</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>15039</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>15275</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>16857</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>14718</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>14624</v>
+        <v>3440</v>
       </c>
     </row>
   </sheetData>
@@ -4000,13 +4871,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4031,7 +4902,7 @@
         <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>2671</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="3">
@@ -4039,7 +4910,7 @@
         <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>2702</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="4">
@@ -4047,7 +4918,7 @@
         <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>2688</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="5">
@@ -4055,7 +4926,7 @@
         <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>2525</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="6">
@@ -4063,7 +4934,7 @@
         <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>2632</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="7">
@@ -4071,7 +4942,7 @@
         <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>2667</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="8">
@@ -4079,7 +4950,7 @@
         <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>2747</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="9">
@@ -4087,7 +4958,7 @@
         <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>2734</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="10">
@@ -4095,7 +4966,7 @@
         <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>2734</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="11">
@@ -4103,7 +4974,7 @@
         <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>2680</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="12">
@@ -4111,7 +4982,7 @@
         <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>2704</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="13">
@@ -4119,7 +4990,7 @@
         <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>2776</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="14">
@@ -4127,7 +4998,7 @@
         <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>3096</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="15">
@@ -4135,7 +5006,7 @@
         <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>3067</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16">
@@ -4143,7 +5014,7 @@
         <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>3056</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17">
@@ -4151,7 +5022,7 @@
         <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>3064</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="18">
@@ -4159,7 +5030,7 @@
         <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>3054</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="19">
@@ -4167,7 +5038,7 @@
         <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>3049</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="20">
@@ -4175,7 +5046,7 @@
         <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>3086</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="21">
@@ -4183,7 +5054,7 @@
         <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>3131</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="22">
@@ -4191,7 +5062,7 @@
         <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>3136</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="23">
@@ -4199,7 +5070,7 @@
         <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>3121</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24">
@@ -4207,7 +5078,7 @@
         <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>3121</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="25">
@@ -4215,7 +5086,7 @@
         <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>3089</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="26">
@@ -4223,7 +5094,7 @@
         <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="27">
@@ -4231,7 +5102,7 @@
         <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>3053</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="28">
@@ -4239,7 +5110,7 @@
         <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>3060</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="29">
@@ -4247,7 +5118,7 @@
         <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>3133</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="30">
@@ -4255,7 +5126,7 @@
         <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>3511</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="31">
@@ -4263,7 +5134,7 @@
         <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>3466</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="32">
@@ -4271,7 +5142,7 @@
         <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>3473</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="33">
@@ -4279,7 +5150,7 @@
         <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>3774</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="34">
@@ -4287,7 +5158,7 @@
         <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>3880</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35">
@@ -4295,7 +5166,7 @@
         <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>4056</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="36">
@@ -4303,7 +5174,7 @@
         <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>4133</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="37">
@@ -4311,7 +5182,7 @@
         <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>4078</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="38">
@@ -4319,7 +5190,7 @@
         <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>3976</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="39">
@@ -4327,7 +5198,7 @@
         <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>3658</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="40">
@@ -4335,7 +5206,7 @@
         <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>3674</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="41">
@@ -4343,7 +5214,7 @@
         <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>3631</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="42">
@@ -4351,7 +5222,7 @@
         <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>3593</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="43">
@@ -4359,7 +5230,7 @@
         <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>3587</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="44">
@@ -4367,7 +5238,7 @@
         <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>3612</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="45">
@@ -4375,7 +5246,7 @@
         <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>3674</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="46">
@@ -4383,7 +5254,7 @@
         <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>3706</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="47">
@@ -4391,7 +5262,7 @@
         <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>3681</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="48">
@@ -4399,7 +5270,7 @@
         <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>3668</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="49">
@@ -4407,7 +5278,7 @@
         <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>3662</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="50">
@@ -4415,7 +5286,7 @@
         <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>3655</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="51">
@@ -4423,7 +5294,7 @@
         <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>3649</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="52">
@@ -4431,7 +5302,7 @@
         <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="53">
@@ -4439,7 +5310,7 @@
         <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>3667</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="54">
@@ -4447,7 +5318,7 @@
         <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>3686</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="55">
@@ -4455,7 +5326,7 @@
         <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>3673</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="56">
@@ -4463,7 +5334,7 @@
         <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="57">
@@ -4471,7 +5342,7 @@
         <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>3693</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="58">
@@ -4479,7 +5350,7 @@
         <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>3700</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="59">
@@ -4487,7 +5358,7 @@
         <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>3687</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="60">
@@ -4495,7 +5366,7 @@
         <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>3719</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="61">
@@ -4503,7 +5374,7 @@
         <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>3707</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="62">
@@ -4511,7 +5382,7 @@
         <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>3700</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="63">
@@ -4519,7 +5390,7 @@
         <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>3681</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="64">
@@ -4527,7 +5398,7 @@
         <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>3687</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="65">
@@ -4535,7 +5406,7 @@
         <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>3700</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="66">
@@ -4543,7 +5414,7 @@
         <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>3668</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="67">
@@ -4551,7 +5422,7 @@
         <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>3666</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="68">
@@ -4559,7 +5430,7 @@
         <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>3635</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="69">
@@ -4567,7 +5438,7 @@
         <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>3609</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="70">
@@ -4575,7 +5446,7 @@
         <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>3571</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="71">
@@ -4583,7 +5454,7 @@
         <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>3597</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="72">
@@ -4591,7 +5462,7 @@
         <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>3565</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="73">
@@ -4599,7 +5470,7 @@
         <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>3558</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="74">
@@ -4607,7 +5478,7 @@
         <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>3577</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="75">
@@ -4615,7 +5486,7 @@
         <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>3574</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="76">
@@ -4623,7 +5494,7 @@
         <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>3529</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="77">
@@ -4631,7 +5502,7 @@
         <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>3516</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="78">
@@ -4639,7 +5510,7 @@
         <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>3525</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="79">
@@ -4647,7 +5518,7 @@
         <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>3581</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="80">
@@ -4655,7 +5526,7 @@
         <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>3632</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="81">
@@ -4663,7 +5534,7 @@
         <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>3606</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="82">
@@ -4671,7 +5542,7 @@
         <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>3619</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="83">
@@ -4679,7 +5550,7 @@
         <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>3635</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="84">
@@ -4687,7 +5558,7 @@
         <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>3546</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="85">
@@ -4695,7 +5566,7 @@
         <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>3613</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="86">
@@ -4703,7 +5574,7 @@
         <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>3602</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="87">
@@ -4711,7 +5582,7 @@
         <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>3607</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="88">
@@ -4719,7 +5590,7 @@
         <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>3577</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="89">
@@ -4727,7 +5598,7 @@
         <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>3533</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="90">
@@ -4735,7 +5606,7 @@
         <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>3494</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="91">
@@ -4743,7 +5614,7 @@
         <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>3448</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="92">
@@ -4751,7 +5622,7 @@
         <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>3511</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="93">
@@ -4759,7 +5630,7 @@
         <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>3441</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="94">
@@ -4767,7 +5638,7 @@
         <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>3519</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="95">
@@ -4775,7 +5646,7 @@
         <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>3493</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="96">
@@ -4783,7 +5654,7 @@
         <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>3514</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="97">
@@ -4791,7 +5662,7 @@
         <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>3531</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="98">
@@ -4799,7 +5670,7 @@
         <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>3567</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="99">
@@ -4807,7 +5678,7 @@
         <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>3557</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="100">
@@ -4815,7 +5686,7 @@
         <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>3492</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101">
@@ -4823,838 +5694,15 @@
         <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>3447</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>remn_amt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45833</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45834</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45840</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45866</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45867</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45868</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45883</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45908</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45909</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45910</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45911</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45912</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45916</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45919</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45940</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45951</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45954</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45958</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45975</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B101" t="n">
         <v>1743</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1702</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,6 +1342,14 @@
         <v>438074</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>437021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1353,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,6 +2269,14 @@
         <v>56944</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>57230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2272,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3180,12 +3196,875 @@
         <v>12884</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>12900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29731</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B23" t="n">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27716</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27918</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15081</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15709</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17713</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13916</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>16769</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17059</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16339</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B68" t="n">
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13234</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12793</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B93" t="n">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15039</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B101" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14624</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B103" t="n">
+        <v>23022</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B104" t="n">
+        <v>23893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3213,818 +4092,818 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>31227</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>30323</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>29731</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>30004</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>30827</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>30193</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>31251</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>33704</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>35018</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>31947</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>30359</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>30922</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>30505</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>33411</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>31345</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>30384</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>30756</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>30616</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>29876</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>29856</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>29916</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>29227</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>29699</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>28705</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>27716</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>27462</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>26552</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>26983</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>27918</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>16336</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>10094</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>11238</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>15081</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>15116</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>15186</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>15961</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>15796</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>15709</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>16935</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>19440</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>18877</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>18125</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>18024</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>18129</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>17713</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>18291</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>18612</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>18495</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>20319</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>20470</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>20015</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>13916</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>14093</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>15089</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>14940</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>14697</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>15142</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>16580</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>16620</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>16769</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>17059</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>17030</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>16322</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>16339</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>16358</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>17528</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>13563</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>12940</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>12791</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>12124</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>12059</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>12138</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>12098</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>11712</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>13236</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>11492</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>11086</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>11462</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>11668</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>11541</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>11665</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>11417</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>12132</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>12464</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>13234</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>14048</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>13430</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>13163</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>12793</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>13051</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>12922</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>12779</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>12572</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>13307</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>12926</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>13457</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>15039</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>15275</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>16857</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>14718</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>14624</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B103" t="n">
-        <v>23022</v>
+        <v>3907</v>
       </c>
     </row>
   </sheetData>
@@ -4032,13 +4911,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4063,7 +4942,7 @@
         <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>2671</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="3">
@@ -4071,7 +4950,7 @@
         <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>2702</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="4">
@@ -4079,7 +4958,7 @@
         <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>2688</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="5">
@@ -4087,7 +4966,7 @@
         <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>2525</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="6">
@@ -4095,7 +4974,7 @@
         <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>2632</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="7">
@@ -4103,7 +4982,7 @@
         <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>2667</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="8">
@@ -4111,7 +4990,7 @@
         <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>2747</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="9">
@@ -4119,7 +4998,7 @@
         <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>2734</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="10">
@@ -4127,7 +5006,7 @@
         <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>2734</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="11">
@@ -4135,7 +5014,7 @@
         <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>2680</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="12">
@@ -4143,7 +5022,7 @@
         <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>2704</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="13">
@@ -4151,7 +5030,7 @@
         <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>2776</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="14">
@@ -4159,7 +5038,7 @@
         <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>3096</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="15">
@@ -4167,7 +5046,7 @@
         <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>3067</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16">
@@ -4175,7 +5054,7 @@
         <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>3056</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17">
@@ -4183,7 +5062,7 @@
         <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>3064</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="18">
@@ -4191,7 +5070,7 @@
         <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>3054</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="19">
@@ -4199,7 +5078,7 @@
         <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>3049</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="20">
@@ -4207,7 +5086,7 @@
         <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>3086</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="21">
@@ -4215,7 +5094,7 @@
         <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>3131</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="22">
@@ -4223,7 +5102,7 @@
         <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>3136</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="23">
@@ -4231,7 +5110,7 @@
         <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>3121</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24">
@@ -4239,7 +5118,7 @@
         <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>3121</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="25">
@@ -4247,7 +5126,7 @@
         <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>3089</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="26">
@@ -4255,7 +5134,7 @@
         <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="27">
@@ -4263,7 +5142,7 @@
         <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>3053</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="28">
@@ -4271,7 +5150,7 @@
         <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>3060</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="29">
@@ -4279,7 +5158,7 @@
         <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>3133</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="30">
@@ -4287,7 +5166,7 @@
         <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>3511</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="31">
@@ -4295,7 +5174,7 @@
         <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>3466</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="32">
@@ -4303,7 +5182,7 @@
         <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>3473</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="33">
@@ -4311,7 +5190,7 @@
         <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>3774</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="34">
@@ -4319,7 +5198,7 @@
         <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>3880</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35">
@@ -4327,7 +5206,7 @@
         <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>4056</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="36">
@@ -4335,7 +5214,7 @@
         <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>4133</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="37">
@@ -4343,7 +5222,7 @@
         <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>4078</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="38">
@@ -4351,7 +5230,7 @@
         <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>3976</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="39">
@@ -4359,7 +5238,7 @@
         <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>3658</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="40">
@@ -4367,7 +5246,7 @@
         <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>3674</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="41">
@@ -4375,7 +5254,7 @@
         <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>3631</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="42">
@@ -4383,7 +5262,7 @@
         <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>3593</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="43">
@@ -4391,7 +5270,7 @@
         <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>3587</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="44">
@@ -4399,7 +5278,7 @@
         <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>3612</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="45">
@@ -4407,7 +5286,7 @@
         <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>3674</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="46">
@@ -4415,7 +5294,7 @@
         <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>3706</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="47">
@@ -4423,7 +5302,7 @@
         <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>3681</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="48">
@@ -4431,7 +5310,7 @@
         <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>3668</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="49">
@@ -4439,7 +5318,7 @@
         <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>3662</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="50">
@@ -4447,7 +5326,7 @@
         <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>3655</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="51">
@@ -4455,7 +5334,7 @@
         <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>3649</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="52">
@@ -4463,7 +5342,7 @@
         <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="53">
@@ -4471,7 +5350,7 @@
         <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>3667</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="54">
@@ -4479,7 +5358,7 @@
         <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>3686</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="55">
@@ -4487,7 +5366,7 @@
         <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>3673</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="56">
@@ -4495,7 +5374,7 @@
         <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="57">
@@ -4503,7 +5382,7 @@
         <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>3693</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="58">
@@ -4511,7 +5390,7 @@
         <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>3700</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="59">
@@ -4519,7 +5398,7 @@
         <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>3687</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="60">
@@ -4527,7 +5406,7 @@
         <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>3719</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="61">
@@ -4535,7 +5414,7 @@
         <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>3707</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="62">
@@ -4543,7 +5422,7 @@
         <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>3700</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="63">
@@ -4551,7 +5430,7 @@
         <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>3681</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="64">
@@ -4559,7 +5438,7 @@
         <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>3687</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="65">
@@ -4567,7 +5446,7 @@
         <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>3700</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="66">
@@ -4575,7 +5454,7 @@
         <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>3668</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="67">
@@ -4583,7 +5462,7 @@
         <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>3666</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="68">
@@ -4591,7 +5470,7 @@
         <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>3635</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="69">
@@ -4599,7 +5478,7 @@
         <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>3609</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="70">
@@ -4607,7 +5486,7 @@
         <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>3571</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="71">
@@ -4615,7 +5494,7 @@
         <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>3597</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="72">
@@ -4623,7 +5502,7 @@
         <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>3565</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="73">
@@ -4631,7 +5510,7 @@
         <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>3558</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="74">
@@ -4639,7 +5518,7 @@
         <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>3577</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="75">
@@ -4647,7 +5526,7 @@
         <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>3574</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="76">
@@ -4655,7 +5534,7 @@
         <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>3529</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="77">
@@ -4663,7 +5542,7 @@
         <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>3516</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="78">
@@ -4671,7 +5550,7 @@
         <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>3525</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="79">
@@ -4679,7 +5558,7 @@
         <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>3581</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="80">
@@ -4687,7 +5566,7 @@
         <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>3632</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="81">
@@ -4695,7 +5574,7 @@
         <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>3606</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="82">
@@ -4703,7 +5582,7 @@
         <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>3619</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="83">
@@ -4711,7 +5590,7 @@
         <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>3635</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="84">
@@ -4719,7 +5598,7 @@
         <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>3546</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="85">
@@ -4727,7 +5606,7 @@
         <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>3613</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="86">
@@ -4735,7 +5614,7 @@
         <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>3602</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="87">
@@ -4743,7 +5622,7 @@
         <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>3607</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="88">
@@ -4751,7 +5630,7 @@
         <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>3577</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="89">
@@ -4759,7 +5638,7 @@
         <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>3533</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="90">
@@ -4767,7 +5646,7 @@
         <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>3494</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="91">
@@ -4775,7 +5654,7 @@
         <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>3448</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="92">
@@ -4783,7 +5662,7 @@
         <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>3511</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="93">
@@ -4791,7 +5670,7 @@
         <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>3441</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="94">
@@ -4799,7 +5678,7 @@
         <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>3519</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="95">
@@ -4807,7 +5686,7 @@
         <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>3493</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="96">
@@ -4815,7 +5694,7 @@
         <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>3514</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="97">
@@ -4823,7 +5702,7 @@
         <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>3531</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="98">
@@ -4831,7 +5710,7 @@
         <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>3567</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="99">
@@ -4839,7 +5718,7 @@
         <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>3557</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="100">
@@ -4847,7 +5726,7 @@
         <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>3492</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101">
@@ -4855,7 +5734,7 @@
         <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>3447</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="102">
@@ -4863,846 +5742,15 @@
         <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>3440</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>remn_amt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45833</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45834</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45840</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45866</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45867</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45868</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45883</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45908</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45909</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45910</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45911</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45912</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45916</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45919</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45940</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45951</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45954</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45958</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45975</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45979</v>
-      </c>
-      <c r="B102" t="n">
         <v>1702</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1350,6 +1350,14 @@
         <v>437021</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>448870</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1361,7 +1369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,6 +2285,14 @@
         <v>57230</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>59477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2288,7 +2304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3204,12 +3220,883 @@
         <v>12900</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>13556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29731</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B23" t="n">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27716</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27918</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15081</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15709</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17713</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13916</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>16769</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17059</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16339</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B68" t="n">
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13234</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12793</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B93" t="n">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15039</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B101" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14624</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B103" t="n">
+        <v>23022</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B104" t="n">
+        <v>23893</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23911</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3237,826 +4124,826 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>31227</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>30323</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>29731</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>30004</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>30827</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>30193</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>31251</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>33704</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>35018</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>31947</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>30359</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>30922</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>30505</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>33411</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>31345</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>30384</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>30756</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>30616</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>29876</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>29856</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>29916</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>29227</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>29699</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>28705</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>27716</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>27462</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>26552</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>26983</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>27918</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>16336</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>10094</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>11238</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>15081</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>15116</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>15186</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>15961</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>15796</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>15709</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>16935</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>19440</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>18877</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>18125</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>18024</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>18129</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>17713</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>18291</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>18612</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>18495</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>20319</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>20470</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>20015</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>13916</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>14093</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>15089</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>14940</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>14697</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>15142</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>16580</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>16620</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>16769</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>17059</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>17030</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>16322</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>16339</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>16358</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>17528</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>13563</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>12940</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>12791</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>12124</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>12059</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>12138</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>12098</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>11712</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>13236</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>11492</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>11086</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>11462</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>11668</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>11541</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>11665</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>11417</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>12132</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>12464</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>13234</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>14048</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>13430</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>13163</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>12793</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>13051</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>12922</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>12779</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>12572</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>13307</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>12926</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>13457</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>15039</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>15275</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>16857</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>14718</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>14624</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B103" t="n">
-        <v>23022</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B104" t="n">
-        <v>23893</v>
+        <v>3758</v>
       </c>
     </row>
   </sheetData>
@@ -4064,13 +4951,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4095,7 +4982,7 @@
         <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>2671</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="3">
@@ -4103,7 +4990,7 @@
         <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>2702</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="4">
@@ -4111,7 +4998,7 @@
         <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>2688</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="5">
@@ -4119,7 +5006,7 @@
         <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>2525</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="6">
@@ -4127,7 +5014,7 @@
         <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>2632</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="7">
@@ -4135,7 +5022,7 @@
         <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>2667</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="8">
@@ -4143,7 +5030,7 @@
         <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>2747</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="9">
@@ -4151,7 +5038,7 @@
         <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>2734</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="10">
@@ -4159,7 +5046,7 @@
         <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>2734</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="11">
@@ -4167,7 +5054,7 @@
         <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>2680</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="12">
@@ -4175,7 +5062,7 @@
         <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>2704</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="13">
@@ -4183,7 +5070,7 @@
         <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>2776</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="14">
@@ -4191,7 +5078,7 @@
         <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>3096</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="15">
@@ -4199,7 +5086,7 @@
         <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>3067</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16">
@@ -4207,7 +5094,7 @@
         <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>3056</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17">
@@ -4215,7 +5102,7 @@
         <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>3064</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="18">
@@ -4223,7 +5110,7 @@
         <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>3054</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="19">
@@ -4231,7 +5118,7 @@
         <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>3049</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="20">
@@ -4239,7 +5126,7 @@
         <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>3086</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="21">
@@ -4247,7 +5134,7 @@
         <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>3131</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="22">
@@ -4255,7 +5142,7 @@
         <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>3136</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="23">
@@ -4263,7 +5150,7 @@
         <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>3121</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24">
@@ -4271,7 +5158,7 @@
         <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>3121</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="25">
@@ -4279,7 +5166,7 @@
         <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>3089</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="26">
@@ -4287,7 +5174,7 @@
         <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="27">
@@ -4295,7 +5182,7 @@
         <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>3053</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="28">
@@ -4303,7 +5190,7 @@
         <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>3060</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="29">
@@ -4311,7 +5198,7 @@
         <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>3133</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="30">
@@ -4319,7 +5206,7 @@
         <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>3511</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="31">
@@ -4327,7 +5214,7 @@
         <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>3466</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="32">
@@ -4335,7 +5222,7 @@
         <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>3473</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="33">
@@ -4343,7 +5230,7 @@
         <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>3774</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="34">
@@ -4351,7 +5238,7 @@
         <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>3880</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35">
@@ -4359,7 +5246,7 @@
         <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>4056</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="36">
@@ -4367,7 +5254,7 @@
         <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>4133</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="37">
@@ -4375,7 +5262,7 @@
         <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>4078</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="38">
@@ -4383,7 +5270,7 @@
         <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>3976</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="39">
@@ -4391,7 +5278,7 @@
         <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>3658</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="40">
@@ -4399,7 +5286,7 @@
         <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>3674</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="41">
@@ -4407,7 +5294,7 @@
         <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>3631</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="42">
@@ -4415,7 +5302,7 @@
         <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>3593</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="43">
@@ -4423,7 +5310,7 @@
         <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>3587</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="44">
@@ -4431,7 +5318,7 @@
         <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>3612</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="45">
@@ -4439,7 +5326,7 @@
         <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>3674</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="46">
@@ -4447,7 +5334,7 @@
         <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>3706</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="47">
@@ -4455,7 +5342,7 @@
         <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>3681</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="48">
@@ -4463,7 +5350,7 @@
         <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>3668</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="49">
@@ -4471,7 +5358,7 @@
         <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>3662</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="50">
@@ -4479,7 +5366,7 @@
         <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>3655</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="51">
@@ -4487,7 +5374,7 @@
         <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>3649</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="52">
@@ -4495,7 +5382,7 @@
         <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="53">
@@ -4503,7 +5390,7 @@
         <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>3667</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="54">
@@ -4511,7 +5398,7 @@
         <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>3686</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="55">
@@ -4519,7 +5406,7 @@
         <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>3673</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="56">
@@ -4527,7 +5414,7 @@
         <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="57">
@@ -4535,7 +5422,7 @@
         <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>3693</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="58">
@@ -4543,7 +5430,7 @@
         <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>3700</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="59">
@@ -4551,7 +5438,7 @@
         <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>3687</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="60">
@@ -4559,7 +5446,7 @@
         <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>3719</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="61">
@@ -4567,7 +5454,7 @@
         <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>3707</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="62">
@@ -4575,7 +5462,7 @@
         <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>3700</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="63">
@@ -4583,7 +5470,7 @@
         <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>3681</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="64">
@@ -4591,7 +5478,7 @@
         <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>3687</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="65">
@@ -4599,7 +5486,7 @@
         <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>3700</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="66">
@@ -4607,7 +5494,7 @@
         <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>3668</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="67">
@@ -4615,7 +5502,7 @@
         <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>3666</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="68">
@@ -4623,7 +5510,7 @@
         <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>3635</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="69">
@@ -4631,7 +5518,7 @@
         <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>3609</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="70">
@@ -4639,7 +5526,7 @@
         <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>3571</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="71">
@@ -4647,7 +5534,7 @@
         <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>3597</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="72">
@@ -4655,7 +5542,7 @@
         <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>3565</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="73">
@@ -4663,7 +5550,7 @@
         <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>3558</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="74">
@@ -4671,7 +5558,7 @@
         <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>3577</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="75">
@@ -4679,7 +5566,7 @@
         <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>3574</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="76">
@@ -4687,7 +5574,7 @@
         <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>3529</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="77">
@@ -4695,7 +5582,7 @@
         <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>3516</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="78">
@@ -4703,7 +5590,7 @@
         <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>3525</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="79">
@@ -4711,7 +5598,7 @@
         <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>3581</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="80">
@@ -4719,7 +5606,7 @@
         <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>3632</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="81">
@@ -4727,7 +5614,7 @@
         <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>3606</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="82">
@@ -4735,7 +5622,7 @@
         <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>3619</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="83">
@@ -4743,7 +5630,7 @@
         <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>3635</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="84">
@@ -4751,7 +5638,7 @@
         <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>3546</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="85">
@@ -4759,7 +5646,7 @@
         <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>3613</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="86">
@@ -4767,7 +5654,7 @@
         <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>3602</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="87">
@@ -4775,7 +5662,7 @@
         <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>3607</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="88">
@@ -4783,7 +5670,7 @@
         <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>3577</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="89">
@@ -4791,7 +5678,7 @@
         <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>3533</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="90">
@@ -4799,7 +5686,7 @@
         <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>3494</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="91">
@@ -4807,7 +5694,7 @@
         <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>3448</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="92">
@@ -4815,7 +5702,7 @@
         <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>3511</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="93">
@@ -4823,7 +5710,7 @@
         <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>3441</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="94">
@@ -4831,7 +5718,7 @@
         <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>3519</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="95">
@@ -4839,7 +5726,7 @@
         <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>3493</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="96">
@@ -4847,7 +5734,7 @@
         <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>3514</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="97">
@@ -4855,7 +5742,7 @@
         <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>3531</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="98">
@@ -4863,7 +5750,7 @@
         <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>3567</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="99">
@@ -4871,7 +5758,7 @@
         <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>3557</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="100">
@@ -4879,7 +5766,7 @@
         <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>3492</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101">
@@ -4887,7 +5774,7 @@
         <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>3447</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="102">
@@ -4895,7 +5782,7 @@
         <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>3440</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="103">
@@ -4903,854 +5790,15 @@
         <v>45980</v>
       </c>
       <c r="B103" t="n">
-        <v>3907</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>remn_amt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45833</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45834</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45840</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45866</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45867</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45868</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45883</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45908</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45909</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45910</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45911</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45912</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45916</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45919</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45940</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45951</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45954</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45958</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45975</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45979</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B103" t="n">
         <v>1976</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1842</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,6 +1358,14 @@
         <v>448870</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>436397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1369,7 +1377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2293,6 +2301,14 @@
         <v>59477</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>55309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2304,7 +2320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3228,12 +3244,891 @@
         <v>13556</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>13399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29731</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B23" t="n">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27716</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27918</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15081</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15709</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17713</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13916</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>16769</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17059</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16339</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B68" t="n">
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13234</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12793</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B93" t="n">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15039</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B101" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14624</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B103" t="n">
+        <v>23022</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B104" t="n">
+        <v>23893</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23911</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B106" t="n">
+        <v>24189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3261,834 +4156,834 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>31227</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>30323</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>29731</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>30004</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>30827</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>30193</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>31251</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>33704</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>35018</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>31947</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>30359</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>30922</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>30505</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>33411</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>31345</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>30384</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>30756</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>30616</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>29876</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>29856</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>29916</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>29227</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>29699</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>28705</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>27716</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>27462</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>26552</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>26983</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>27918</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>16336</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>10094</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>11238</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>15081</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>15116</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>15186</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>15961</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>15796</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>15709</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>16935</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>19440</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>18877</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>18125</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>18024</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>18129</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>17713</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>18291</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>18612</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>18495</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>20319</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>20470</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>20015</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>13916</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>14093</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>15089</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>14940</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>14697</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>15142</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>16580</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>16620</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>16769</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>17059</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>17030</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>16322</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>16339</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>16358</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>17528</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>13563</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>12940</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>12791</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>12124</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>12059</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>12138</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>12098</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>11712</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>13236</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>11492</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>11086</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>11462</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>11668</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>11541</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>11665</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>11417</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>12132</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>12464</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>13234</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>14048</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>13430</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>13163</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>12793</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>13051</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>12922</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>12779</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>12572</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>13307</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>12926</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>13457</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>15039</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>15275</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>16857</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>14718</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>14624</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B103" t="n">
-        <v>23022</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B104" t="n">
-        <v>23893</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B105" t="n">
-        <v>23911</v>
+        <v>3709</v>
       </c>
     </row>
   </sheetData>
@@ -4096,13 +4991,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,7 +5022,7 @@
         <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>2671</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="3">
@@ -4135,7 +5030,7 @@
         <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>2702</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="4">
@@ -4143,7 +5038,7 @@
         <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>2688</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="5">
@@ -4151,7 +5046,7 @@
         <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>2525</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="6">
@@ -4159,7 +5054,7 @@
         <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>2632</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="7">
@@ -4167,7 +5062,7 @@
         <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>2667</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="8">
@@ -4175,7 +5070,7 @@
         <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>2747</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="9">
@@ -4183,7 +5078,7 @@
         <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>2734</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="10">
@@ -4191,7 +5086,7 @@
         <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>2734</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="11">
@@ -4199,7 +5094,7 @@
         <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>2680</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="12">
@@ -4207,7 +5102,7 @@
         <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>2704</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="13">
@@ -4215,7 +5110,7 @@
         <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>2776</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="14">
@@ -4223,7 +5118,7 @@
         <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>3096</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="15">
@@ -4231,7 +5126,7 @@
         <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>3067</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16">
@@ -4239,7 +5134,7 @@
         <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>3056</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17">
@@ -4247,7 +5142,7 @@
         <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>3064</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="18">
@@ -4255,7 +5150,7 @@
         <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>3054</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="19">
@@ -4263,7 +5158,7 @@
         <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>3049</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="20">
@@ -4271,7 +5166,7 @@
         <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>3086</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="21">
@@ -4279,7 +5174,7 @@
         <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>3131</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="22">
@@ -4287,7 +5182,7 @@
         <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>3136</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="23">
@@ -4295,7 +5190,7 @@
         <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>3121</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24">
@@ -4303,7 +5198,7 @@
         <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>3121</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="25">
@@ -4311,7 +5206,7 @@
         <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>3089</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="26">
@@ -4319,7 +5214,7 @@
         <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="27">
@@ -4327,7 +5222,7 @@
         <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>3053</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="28">
@@ -4335,7 +5230,7 @@
         <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>3060</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="29">
@@ -4343,7 +5238,7 @@
         <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>3133</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="30">
@@ -4351,7 +5246,7 @@
         <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>3511</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="31">
@@ -4359,7 +5254,7 @@
         <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>3466</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="32">
@@ -4367,7 +5262,7 @@
         <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>3473</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="33">
@@ -4375,7 +5270,7 @@
         <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>3774</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="34">
@@ -4383,7 +5278,7 @@
         <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>3880</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35">
@@ -4391,7 +5286,7 @@
         <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>4056</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="36">
@@ -4399,7 +5294,7 @@
         <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>4133</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="37">
@@ -4407,7 +5302,7 @@
         <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>4078</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="38">
@@ -4415,7 +5310,7 @@
         <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>3976</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="39">
@@ -4423,7 +5318,7 @@
         <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>3658</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="40">
@@ -4431,7 +5326,7 @@
         <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>3674</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="41">
@@ -4439,7 +5334,7 @@
         <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>3631</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="42">
@@ -4447,7 +5342,7 @@
         <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>3593</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="43">
@@ -4455,7 +5350,7 @@
         <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>3587</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="44">
@@ -4463,7 +5358,7 @@
         <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>3612</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="45">
@@ -4471,7 +5366,7 @@
         <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>3674</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="46">
@@ -4479,7 +5374,7 @@
         <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>3706</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="47">
@@ -4487,7 +5382,7 @@
         <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>3681</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="48">
@@ -4495,7 +5390,7 @@
         <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>3668</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="49">
@@ -4503,7 +5398,7 @@
         <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>3662</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="50">
@@ -4511,7 +5406,7 @@
         <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>3655</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="51">
@@ -4519,7 +5414,7 @@
         <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>3649</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="52">
@@ -4527,7 +5422,7 @@
         <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="53">
@@ -4535,7 +5430,7 @@
         <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>3667</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="54">
@@ -4543,7 +5438,7 @@
         <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>3686</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="55">
@@ -4551,7 +5446,7 @@
         <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>3673</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="56">
@@ -4559,7 +5454,7 @@
         <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="57">
@@ -4567,7 +5462,7 @@
         <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>3693</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="58">
@@ -4575,7 +5470,7 @@
         <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>3700</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="59">
@@ -4583,7 +5478,7 @@
         <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>3687</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="60">
@@ -4591,7 +5486,7 @@
         <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>3719</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="61">
@@ -4599,7 +5494,7 @@
         <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>3707</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="62">
@@ -4607,7 +5502,7 @@
         <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>3700</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="63">
@@ -4615,7 +5510,7 @@
         <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>3681</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="64">
@@ -4623,7 +5518,7 @@
         <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>3687</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="65">
@@ -4631,7 +5526,7 @@
         <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>3700</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="66">
@@ -4639,7 +5534,7 @@
         <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>3668</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="67">
@@ -4647,7 +5542,7 @@
         <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>3666</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="68">
@@ -4655,7 +5550,7 @@
         <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>3635</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="69">
@@ -4663,7 +5558,7 @@
         <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>3609</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="70">
@@ -4671,7 +5566,7 @@
         <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>3571</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="71">
@@ -4679,7 +5574,7 @@
         <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>3597</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="72">
@@ -4687,7 +5582,7 @@
         <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>3565</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="73">
@@ -4695,7 +5590,7 @@
         <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>3558</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="74">
@@ -4703,7 +5598,7 @@
         <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>3577</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="75">
@@ -4711,7 +5606,7 @@
         <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>3574</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="76">
@@ -4719,7 +5614,7 @@
         <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>3529</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="77">
@@ -4727,7 +5622,7 @@
         <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>3516</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="78">
@@ -4735,7 +5630,7 @@
         <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>3525</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="79">
@@ -4743,7 +5638,7 @@
         <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>3581</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="80">
@@ -4751,7 +5646,7 @@
         <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>3632</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="81">
@@ -4759,7 +5654,7 @@
         <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>3606</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="82">
@@ -4767,7 +5662,7 @@
         <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>3619</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="83">
@@ -4775,7 +5670,7 @@
         <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>3635</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="84">
@@ -4783,7 +5678,7 @@
         <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>3546</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="85">
@@ -4791,7 +5686,7 @@
         <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>3613</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="86">
@@ -4799,7 +5694,7 @@
         <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>3602</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="87">
@@ -4807,7 +5702,7 @@
         <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>3607</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="88">
@@ -4815,7 +5710,7 @@
         <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>3577</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="89">
@@ -4823,7 +5718,7 @@
         <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>3533</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="90">
@@ -4831,7 +5726,7 @@
         <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>3494</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="91">
@@ -4839,7 +5734,7 @@
         <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>3448</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="92">
@@ -4847,7 +5742,7 @@
         <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>3511</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="93">
@@ -4855,7 +5750,7 @@
         <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>3441</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="94">
@@ -4863,7 +5758,7 @@
         <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>3519</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="95">
@@ -4871,7 +5766,7 @@
         <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>3493</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="96">
@@ -4879,7 +5774,7 @@
         <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>3514</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="97">
@@ -4887,7 +5782,7 @@
         <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>3531</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="98">
@@ -4895,7 +5790,7 @@
         <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>3567</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="99">
@@ -4903,7 +5798,7 @@
         <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>3557</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="100">
@@ -4911,7 +5806,7 @@
         <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>3492</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101">
@@ -4919,7 +5814,7 @@
         <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>3447</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="102">
@@ -4927,7 +5822,7 @@
         <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>3440</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="103">
@@ -4935,7 +5830,7 @@
         <v>45980</v>
       </c>
       <c r="B103" t="n">
-        <v>3907</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="104">
@@ -4943,862 +5838,15 @@
         <v>45981</v>
       </c>
       <c r="B104" t="n">
-        <v>3758</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B104"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>remn_amt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45833</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45834</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45840</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45866</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45867</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45868</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45883</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45908</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45909</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45910</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45911</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45912</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45916</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45919</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45940</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45951</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45954</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45958</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45975</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45979</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B104" t="n">
         <v>1842</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2039</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,6 +1366,22 @@
         <v>436397</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>427708</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>444476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1377,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2309,6 +2325,22 @@
         <v>55309</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>56027</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>57167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2320,7 +2352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3252,6 +3284,22 @@
         <v>13399</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>13416</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>13382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3263,7 +3311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4123,6 +4171,22 @@
         <v>24189</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B107" t="n">
+        <v>23944</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B108" t="n">
+        <v>24424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4134,7 +4198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4986,6 +5050,22 @@
         <v>3709</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3741</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4997,7 +5077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5849,6 +5929,22 @@
         <v>2039</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,6 +1382,14 @@
         <v>444476</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>457902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1393,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2341,6 +2349,14 @@
         <v>57167</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>58396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2352,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,12 +3316,915 @@
         <v>13382</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29731</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B23" t="n">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27716</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27918</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15081</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15709</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17713</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13916</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>16769</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17059</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16339</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B68" t="n">
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13234</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12793</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B93" t="n">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15039</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B101" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14624</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B103" t="n">
+        <v>23022</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B104" t="n">
+        <v>23893</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23911</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B106" t="n">
+        <v>24189</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B107" t="n">
+        <v>23944</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B108" t="n">
+        <v>24424</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B109" t="n">
+        <v>18178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3333,858 +4252,858 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>31227</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>30323</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>29731</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>30004</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>30827</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>30193</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>31251</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>33704</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>35018</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>31947</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>30359</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>30922</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>30505</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>33411</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>31345</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>30384</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>30756</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>30616</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>29876</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>29856</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>29916</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>29227</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>29699</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>28705</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>27716</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>27462</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>26552</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>26983</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>27918</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>16336</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>10094</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>11238</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>15081</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>15116</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>15186</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>15961</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>15796</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>15709</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>16935</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>19440</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>18877</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>18125</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>18024</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>18129</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>17713</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>18291</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>18612</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>18495</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>20319</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>20470</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>20015</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>13916</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>14093</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>15089</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>14940</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>14697</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>15142</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>16580</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>16620</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>16769</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>17059</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>17030</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>16322</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>16339</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>16358</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>17528</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>13563</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>12940</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>12791</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>12124</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>12059</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>12138</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>12098</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>11712</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>13236</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>11492</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>11086</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>11462</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>11668</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>11541</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>11665</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>11417</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>12132</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>12464</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>13234</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>14048</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>13430</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>13163</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>12793</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>13051</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>12922</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>12779</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>12572</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>13307</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>12926</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>13457</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>15039</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>15275</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>16857</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>14718</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>14624</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B103" t="n">
-        <v>23022</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B104" t="n">
-        <v>23893</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B105" t="n">
-        <v>23911</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B106" t="n">
-        <v>24189</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="B107" t="n">
-        <v>23944</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="B108" t="n">
-        <v>24424</v>
+        <v>3810</v>
       </c>
     </row>
   </sheetData>
@@ -4192,13 +5111,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4223,7 +5142,7 @@
         <v>45831</v>
       </c>
       <c r="B2" t="n">
-        <v>2671</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="3">
@@ -4231,7 +5150,7 @@
         <v>45832</v>
       </c>
       <c r="B3" t="n">
-        <v>2702</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="4">
@@ -4239,7 +5158,7 @@
         <v>45833</v>
       </c>
       <c r="B4" t="n">
-        <v>2688</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="5">
@@ -4247,7 +5166,7 @@
         <v>45834</v>
       </c>
       <c r="B5" t="n">
-        <v>2525</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="6">
@@ -4255,7 +5174,7 @@
         <v>45835</v>
       </c>
       <c r="B6" t="n">
-        <v>2632</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="7">
@@ -4263,7 +5182,7 @@
         <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>2667</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="8">
@@ -4271,7 +5190,7 @@
         <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>2747</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="9">
@@ -4279,7 +5198,7 @@
         <v>45840</v>
       </c>
       <c r="B9" t="n">
-        <v>2734</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="10">
@@ -4287,7 +5206,7 @@
         <v>45841</v>
       </c>
       <c r="B10" t="n">
-        <v>2734</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="11">
@@ -4295,7 +5214,7 @@
         <v>45842</v>
       </c>
       <c r="B11" t="n">
-        <v>2680</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="12">
@@ -4303,7 +5222,7 @@
         <v>45845</v>
       </c>
       <c r="B12" t="n">
-        <v>2704</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="13">
@@ -4311,7 +5230,7 @@
         <v>45846</v>
       </c>
       <c r="B13" t="n">
-        <v>2776</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="14">
@@ -4319,7 +5238,7 @@
         <v>45847</v>
       </c>
       <c r="B14" t="n">
-        <v>3096</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="15">
@@ -4327,7 +5246,7 @@
         <v>45848</v>
       </c>
       <c r="B15" t="n">
-        <v>3067</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16">
@@ -4335,7 +5254,7 @@
         <v>45849</v>
       </c>
       <c r="B16" t="n">
-        <v>3056</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17">
@@ -4343,7 +5262,7 @@
         <v>45852</v>
       </c>
       <c r="B17" t="n">
-        <v>3064</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="18">
@@ -4351,7 +5270,7 @@
         <v>45853</v>
       </c>
       <c r="B18" t="n">
-        <v>3054</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="19">
@@ -4359,7 +5278,7 @@
         <v>45854</v>
       </c>
       <c r="B19" t="n">
-        <v>3049</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="20">
@@ -4367,7 +5286,7 @@
         <v>45855</v>
       </c>
       <c r="B20" t="n">
-        <v>3086</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="21">
@@ -4375,7 +5294,7 @@
         <v>45856</v>
       </c>
       <c r="B21" t="n">
-        <v>3131</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="22">
@@ -4383,7 +5302,7 @@
         <v>45859</v>
       </c>
       <c r="B22" t="n">
-        <v>3136</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="23">
@@ -4391,7 +5310,7 @@
         <v>45860</v>
       </c>
       <c r="B23" t="n">
-        <v>3121</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24">
@@ -4399,7 +5318,7 @@
         <v>45861</v>
       </c>
       <c r="B24" t="n">
-        <v>3121</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="25">
@@ -4407,7 +5326,7 @@
         <v>45862</v>
       </c>
       <c r="B25" t="n">
-        <v>3089</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="26">
@@ -4415,7 +5334,7 @@
         <v>45863</v>
       </c>
       <c r="B26" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="27">
@@ -4423,7 +5342,7 @@
         <v>45866</v>
       </c>
       <c r="B27" t="n">
-        <v>3053</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="28">
@@ -4431,7 +5350,7 @@
         <v>45867</v>
       </c>
       <c r="B28" t="n">
-        <v>3060</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="29">
@@ -4439,7 +5358,7 @@
         <v>45868</v>
       </c>
       <c r="B29" t="n">
-        <v>3133</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +5366,7 @@
         <v>45869</v>
       </c>
       <c r="B30" t="n">
-        <v>3511</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="31">
@@ -4455,7 +5374,7 @@
         <v>45870</v>
       </c>
       <c r="B31" t="n">
-        <v>3466</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="32">
@@ -4463,7 +5382,7 @@
         <v>45873</v>
       </c>
       <c r="B32" t="n">
-        <v>3473</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="33">
@@ -4471,7 +5390,7 @@
         <v>45874</v>
       </c>
       <c r="B33" t="n">
-        <v>3774</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="34">
@@ -4479,7 +5398,7 @@
         <v>45875</v>
       </c>
       <c r="B34" t="n">
-        <v>3880</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35">
@@ -4487,7 +5406,7 @@
         <v>45876</v>
       </c>
       <c r="B35" t="n">
-        <v>4056</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="36">
@@ -4495,7 +5414,7 @@
         <v>45877</v>
       </c>
       <c r="B36" t="n">
-        <v>4133</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="37">
@@ -4503,7 +5422,7 @@
         <v>45880</v>
       </c>
       <c r="B37" t="n">
-        <v>4078</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="38">
@@ -4511,7 +5430,7 @@
         <v>45881</v>
       </c>
       <c r="B38" t="n">
-        <v>3976</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="39">
@@ -4519,7 +5438,7 @@
         <v>45882</v>
       </c>
       <c r="B39" t="n">
-        <v>3658</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="40">
@@ -4527,7 +5446,7 @@
         <v>45883</v>
       </c>
       <c r="B40" t="n">
-        <v>3674</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="41">
@@ -4535,7 +5454,7 @@
         <v>45887</v>
       </c>
       <c r="B41" t="n">
-        <v>3631</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="42">
@@ -4543,7 +5462,7 @@
         <v>45888</v>
       </c>
       <c r="B42" t="n">
-        <v>3593</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="43">
@@ -4551,7 +5470,7 @@
         <v>45889</v>
       </c>
       <c r="B43" t="n">
-        <v>3587</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="44">
@@ -4559,7 +5478,7 @@
         <v>45890</v>
       </c>
       <c r="B44" t="n">
-        <v>3612</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="45">
@@ -4567,7 +5486,7 @@
         <v>45891</v>
       </c>
       <c r="B45" t="n">
-        <v>3674</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="46">
@@ -4575,7 +5494,7 @@
         <v>45894</v>
       </c>
       <c r="B46" t="n">
-        <v>3706</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="47">
@@ -4583,7 +5502,7 @@
         <v>45895</v>
       </c>
       <c r="B47" t="n">
-        <v>3681</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="48">
@@ -4591,7 +5510,7 @@
         <v>45896</v>
       </c>
       <c r="B48" t="n">
-        <v>3668</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="49">
@@ -4599,7 +5518,7 @@
         <v>45897</v>
       </c>
       <c r="B49" t="n">
-        <v>3662</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="50">
@@ -4607,7 +5526,7 @@
         <v>45898</v>
       </c>
       <c r="B50" t="n">
-        <v>3655</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="51">
@@ -4615,7 +5534,7 @@
         <v>45901</v>
       </c>
       <c r="B51" t="n">
-        <v>3649</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="52">
@@ -4623,7 +5542,7 @@
         <v>45902</v>
       </c>
       <c r="B52" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="53">
@@ -4631,7 +5550,7 @@
         <v>45903</v>
       </c>
       <c r="B53" t="n">
-        <v>3667</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="54">
@@ -4639,7 +5558,7 @@
         <v>45904</v>
       </c>
       <c r="B54" t="n">
-        <v>3686</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="55">
@@ -4647,7 +5566,7 @@
         <v>45905</v>
       </c>
       <c r="B55" t="n">
-        <v>3673</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="56">
@@ -4655,7 +5574,7 @@
         <v>45908</v>
       </c>
       <c r="B56" t="n">
-        <v>3667</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="57">
@@ -4663,7 +5582,7 @@
         <v>45909</v>
       </c>
       <c r="B57" t="n">
-        <v>3693</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="58">
@@ -4671,7 +5590,7 @@
         <v>45910</v>
       </c>
       <c r="B58" t="n">
-        <v>3700</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="59">
@@ -4679,7 +5598,7 @@
         <v>45911</v>
       </c>
       <c r="B59" t="n">
-        <v>3687</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="60">
@@ -4687,7 +5606,7 @@
         <v>45912</v>
       </c>
       <c r="B60" t="n">
-        <v>3719</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="61">
@@ -4695,7 +5614,7 @@
         <v>45915</v>
       </c>
       <c r="B61" t="n">
-        <v>3707</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="62">
@@ -4703,7 +5622,7 @@
         <v>45916</v>
       </c>
       <c r="B62" t="n">
-        <v>3700</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="63">
@@ -4711,7 +5630,7 @@
         <v>45917</v>
       </c>
       <c r="B63" t="n">
-        <v>3681</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="64">
@@ -4719,7 +5638,7 @@
         <v>45918</v>
       </c>
       <c r="B64" t="n">
-        <v>3687</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="65">
@@ -4727,7 +5646,7 @@
         <v>45919</v>
       </c>
       <c r="B65" t="n">
-        <v>3700</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="66">
@@ -4735,7 +5654,7 @@
         <v>45922</v>
       </c>
       <c r="B66" t="n">
-        <v>3668</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="67">
@@ -4743,7 +5662,7 @@
         <v>45923</v>
       </c>
       <c r="B67" t="n">
-        <v>3666</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="68">
@@ -4751,7 +5670,7 @@
         <v>45924</v>
       </c>
       <c r="B68" t="n">
-        <v>3635</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="69">
@@ -4759,7 +5678,7 @@
         <v>45925</v>
       </c>
       <c r="B69" t="n">
-        <v>3609</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="70">
@@ -4767,7 +5686,7 @@
         <v>45926</v>
       </c>
       <c r="B70" t="n">
-        <v>3571</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="71">
@@ -4775,7 +5694,7 @@
         <v>45929</v>
       </c>
       <c r="B71" t="n">
-        <v>3597</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="72">
@@ -4783,7 +5702,7 @@
         <v>45930</v>
       </c>
       <c r="B72" t="n">
-        <v>3565</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="73">
@@ -4791,7 +5710,7 @@
         <v>45931</v>
       </c>
       <c r="B73" t="n">
-        <v>3558</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="74">
@@ -4799,7 +5718,7 @@
         <v>45932</v>
       </c>
       <c r="B74" t="n">
-        <v>3577</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="75">
@@ -4807,7 +5726,7 @@
         <v>45940</v>
       </c>
       <c r="B75" t="n">
-        <v>3574</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="76">
@@ -4815,7 +5734,7 @@
         <v>45943</v>
       </c>
       <c r="B76" t="n">
-        <v>3529</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="77">
@@ -4823,7 +5742,7 @@
         <v>45944</v>
       </c>
       <c r="B77" t="n">
-        <v>3516</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="78">
@@ -4831,7 +5750,7 @@
         <v>45945</v>
       </c>
       <c r="B78" t="n">
-        <v>3525</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="79">
@@ -4839,7 +5758,7 @@
         <v>45946</v>
       </c>
       <c r="B79" t="n">
-        <v>3581</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="80">
@@ -4847,7 +5766,7 @@
         <v>45947</v>
       </c>
       <c r="B80" t="n">
-        <v>3632</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="81">
@@ -4855,7 +5774,7 @@
         <v>45950</v>
       </c>
       <c r="B81" t="n">
-        <v>3606</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="82">
@@ -4863,7 +5782,7 @@
         <v>45951</v>
       </c>
       <c r="B82" t="n">
-        <v>3619</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="83">
@@ -4871,7 +5790,7 @@
         <v>45952</v>
       </c>
       <c r="B83" t="n">
-        <v>3635</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="84">
@@ -4879,7 +5798,7 @@
         <v>45953</v>
       </c>
       <c r="B84" t="n">
-        <v>3546</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="85">
@@ -4887,7 +5806,7 @@
         <v>45954</v>
       </c>
       <c r="B85" t="n">
-        <v>3613</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="86">
@@ -4895,7 +5814,7 @@
         <v>45957</v>
       </c>
       <c r="B86" t="n">
-        <v>3602</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="87">
@@ -4903,7 +5822,7 @@
         <v>45958</v>
       </c>
       <c r="B87" t="n">
-        <v>3607</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="88">
@@ -4911,7 +5830,7 @@
         <v>45959</v>
       </c>
       <c r="B88" t="n">
-        <v>3577</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="89">
@@ -4919,7 +5838,7 @@
         <v>45960</v>
       </c>
       <c r="B89" t="n">
-        <v>3533</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="90">
@@ -4927,7 +5846,7 @@
         <v>45961</v>
       </c>
       <c r="B90" t="n">
-        <v>3494</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="91">
@@ -4935,7 +5854,7 @@
         <v>45964</v>
       </c>
       <c r="B91" t="n">
-        <v>3448</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="92">
@@ -4943,7 +5862,7 @@
         <v>45965</v>
       </c>
       <c r="B92" t="n">
-        <v>3511</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="93">
@@ -4951,7 +5870,7 @@
         <v>45966</v>
       </c>
       <c r="B93" t="n">
-        <v>3441</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="94">
@@ -4959,7 +5878,7 @@
         <v>45967</v>
       </c>
       <c r="B94" t="n">
-        <v>3519</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="95">
@@ -4967,7 +5886,7 @@
         <v>45968</v>
       </c>
       <c r="B95" t="n">
-        <v>3493</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="96">
@@ -4975,7 +5894,7 @@
         <v>45971</v>
       </c>
       <c r="B96" t="n">
-        <v>3514</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="97">
@@ -4983,7 +5902,7 @@
         <v>45972</v>
       </c>
       <c r="B97" t="n">
-        <v>3531</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="98">
@@ -4991,7 +5910,7 @@
         <v>45973</v>
       </c>
       <c r="B98" t="n">
-        <v>3567</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="99">
@@ -4999,7 +5918,7 @@
         <v>45974</v>
       </c>
       <c r="B99" t="n">
-        <v>3557</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="100">
@@ -5007,7 +5926,7 @@
         <v>45975</v>
       </c>
       <c r="B100" t="n">
-        <v>3492</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101">
@@ -5015,7 +5934,7 @@
         <v>45978</v>
       </c>
       <c r="B101" t="n">
-        <v>3447</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="102">
@@ -5023,7 +5942,7 @@
         <v>45979</v>
       </c>
       <c r="B102" t="n">
-        <v>3440</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="103">
@@ -5031,7 +5950,7 @@
         <v>45980</v>
       </c>
       <c r="B103" t="n">
-        <v>3907</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="104">
@@ -5039,7 +5958,7 @@
         <v>45981</v>
       </c>
       <c r="B104" t="n">
-        <v>3758</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="105">
@@ -5047,7 +5966,7 @@
         <v>45982</v>
       </c>
       <c r="B105" t="n">
-        <v>3709</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="106">
@@ -5055,7 +5974,7 @@
         <v>45985</v>
       </c>
       <c r="B106" t="n">
-        <v>3769</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="107">
@@ -5063,886 +5982,15 @@
         <v>45986</v>
       </c>
       <c r="B107" t="n">
-        <v>3741</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B107"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>remn_amt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45833</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45834</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45840</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45866</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45867</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45868</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45883</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45908</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45909</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45910</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45911</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45912</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45916</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45919</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45940</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45951</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45954</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45958</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45975</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45979</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>45982</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>45986</v>
-      </c>
-      <c r="B107" t="n">
         <v>1275</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1276</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,6 +1390,22 @@
         <v>457902</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>450515</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1401,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2357,6 +2373,22 @@
         <v>58396</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>59252</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2368,7 +2400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3324,6 +3356,22 @@
         <v>13886</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>13921</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3335,7 +3383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4219,6 +4267,22 @@
         <v>18178</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B110" t="n">
+        <v>18417</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4230,7 +4294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5106,6 +5170,22 @@
         <v>3810</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5117,7 +5197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5993,6 +6073,22 @@
         <v>1276</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_6.xlsx
+++ b/r_list_6.xlsx
@@ -1403,7 +1403,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>452436</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2386,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>61391</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3369,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>15712</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4280,7 @@
         <v>45989</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>19638</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5183,7 @@
         <v>45989</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>3785</v>
       </c>
     </row>
   </sheetData>
@@ -6086,7 +6086,7 @@
         <v>45989</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1419</v>
       </c>
     </row>
   </sheetData>
